--- a/src/attributions/attributions_ig_traj_399.xlsx
+++ b/src/attributions/attributions_ig_traj_399.xlsx
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>-0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>-0</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>-0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>-0</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>-0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>-0</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>-0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>-0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>-0</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>-0</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>-0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>-0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>-0</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>-0</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>-0</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1573,73 +1573,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0.001371844551513917</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0195712460642199</v>
+        <v>0.08084566397295576</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04950220576950408</v>
+        <v>-0.1623375701787226</v>
       </c>
       <c r="F3" t="n">
         <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1132209539591648</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0.03383682830627161</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0591710138978054</v>
+        <v>0.03298545383821349</v>
       </c>
       <c r="M3" t="n">
         <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0006534294117039704</v>
+        <v>-0.07411632965920736</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04233283311984357</v>
+        <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.02194285100934563</v>
       </c>
       <c r="T3" t="n">
         <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002377862280047626</v>
+        <v>0.04111272864562551</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.01925235003369433</v>
+        <v>-0.1484208584342681</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -1648,25 +1648,25 @@
         <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03794254197270343</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0.1228947243220097</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.03398388693267574</v>
+        <v>0.02027652769946839</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.02486061667866128</v>
+        <v>-0.005471669933826952</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -1675,25 +1675,25 @@
         <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.04676534059100403</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>-0.03524849510865018</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0007559361922582156</v>
+        <v>-0.03906716111421538</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.01398265542610149</v>
+        <v>-0.2010344840329339</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -1702,28 +1702,28 @@
         <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.01250589252319986</v>
+        <v>-0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.004491044258886878</v>
       </c>
       <c r="AU3" t="n">
         <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.1267025804974392</v>
+        <v>0.2126223527323602</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.08068972698451679</v>
+        <v>0.1147962699715393</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0</v>
@@ -1732,76 +1732,76 @@
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.1302525239349729</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0.001992879861097481</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.004850677642381469</v>
+        <v>-0.03887207008373938</v>
       </c>
       <c r="BF3" t="n">
         <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.002507799165188711</v>
+        <v>-0.03811583492091791</v>
       </c>
       <c r="BH3" t="n">
         <v>-0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.006895045326148666</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0.04325487604503384</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.04980447146797353</v>
+        <v>0.03758600498840801</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.07451538985253436</v>
+        <v>0.2908140658679297</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.05018845987632688</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>-0.1234512319265342</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.02659449616911508</v>
+        <v>0.1784307876259955</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.09982502139400205</v>
+        <v>-0.1143442736784246</v>
       </c>
       <c r="BZ3" t="n">
         <v>-0</v>
@@ -1810,106 +1810,106 @@
         <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.1544674124329216</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0.01725534963622691</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.04562798709838856</v>
+        <v>-0.02478518635721767</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.03187075062974763</v>
+        <v>0.07669232146173705</v>
       </c>
       <c r="CI3" t="n">
         <v>-0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.0383746282126963</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>0.009038840622859147</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.005732268099591599</v>
+        <v>0.06142075721626292</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.07856097335868788</v>
+        <v>-0.2425066523752913</v>
       </c>
       <c r="CR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.07897188487542306</v>
+        <v>-0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>0.01000753083961489</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.04395475004288274</v>
+        <v>-0.0133524500961113</v>
       </c>
       <c r="CY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.05107557173293621</v>
+        <v>0.05126530295756766</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.04323263240118394</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>-4.187246485248019e-05</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.07552820070655812</v>
+        <v>-0.0006006283547799425</v>
       </c>
       <c r="DH3" t="n">
         <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.0478156654499698</v>
+        <v>-0.04628011692119417</v>
       </c>
       <c r="DJ3" t="n">
         <v>-0</v>
@@ -1918,28 +1918,28 @@
         <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.001268345262791894</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>-0.02623768187614814</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.06971151229529704</v>
+        <v>-0.0591414656221296</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.04613269891587835</v>
+        <v>0.2009938105648152</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1948,25 +1948,25 @@
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0156696671627651</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0.05846849947681972</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.002800608557090695</v>
+        <v>0.004632907566327422</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.01257853391605339</v>
+        <v>0.07228553381688745</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC3" t="n">
         <v>-0</v>
@@ -1975,154 +1975,154 @@
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.03073417873251734</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>0.0147212612554277</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.03941356199895061</v>
+        <v>-0.05388109922033293</v>
       </c>
       <c r="EI3" t="n">
         <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.03839399333264101</v>
+        <v>-0.02845847340722513</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.02537835610390885</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0.0115411263590276</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.03226170555114337</v>
+        <v>0.001935906204714263</v>
       </c>
       <c r="ER3" t="n">
         <v>-0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.01882221206803234</v>
+        <v>0.00848492606286017</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.03160000889255694</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>0.02697514017038416</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.04802596985527111</v>
+        <v>-0.01974407059717151</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.02323938557799561</v>
+        <v>0.03700298383870756</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
         <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.05080385125609035</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>0.07268200976672015</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.02642935863989549</v>
+        <v>0.04379072490926807</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.05995202676799859</v>
+        <v>0.06585930436866774</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.09569015204368911</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0</v>
+        <v>0.06641274536686821</v>
       </c>
       <c r="FQ3" t="n">
         <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.008588188463024145</v>
+        <v>0.0005780353702028195</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.001249124544033549</v>
+        <v>0.00744908376286422</v>
       </c>
       <c r="FU3" t="n">
         <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
         <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0001231826267705808</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>0.05441835570111056</v>
       </c>
       <c r="FZ3" t="n">
         <v>-0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02787150423928237</v>
+        <v>0.04189194063083341</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
         <v>-0</v>
@@ -2137,7 +2137,7 @@
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.0301781361766837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,70 +2145,70 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.2381201665541946</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01766630230863397</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.04660248287895071</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007046688316348775</v>
+        <v>-0.0454361305462846</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06681723871247272</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.09833848807106792</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01177314179637622</v>
+        <v>-0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0.0328561514835848</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.002996979596474185</v>
+        <v>-0.03075081865024878</v>
       </c>
       <c r="O4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0341290102024575</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.1340484497763859</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01525040842099375</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.03826554725061516</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03484853623413939</v>
+        <v>0.03644409189812885</v>
       </c>
       <c r="X4" t="n">
         <v>-0</v>
@@ -2217,52 +2217,52 @@
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.007404929133472792</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.0393439570601165</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0004358562779628127</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0</v>
+        <v>-0.02288864598545243</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.04118009461484531</v>
+        <v>-0.02453797588788951</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.03013313083409898</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.05839249441883342</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.00383309756342997</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0.0356983978332959</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.03174850321171263</v>
+        <v>-0.01061319676085611</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -2271,55 +2271,55 @@
         <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.001903135703237778</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.3934837790153493</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.05239976118328948</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>0.007187235688812259</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0131045517966085</v>
+        <v>0.1764934815249821</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.08257310209812965</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>0.01084149016269325</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.00801857484033433</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.04005858503499517</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.001867871949294325</v>
+        <v>-0.06443481074443812</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2328,22 +2328,22 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.006024925683455018</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>0.04551464302100783</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.04920948270292982</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0</v>
+        <v>0.09875463572826514</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.03482904681813294</v>
+        <v>0.01664732272162753</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
@@ -2352,25 +2352,25 @@
         <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.02362851329036719</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
         <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.2426099436166873</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.0008526419309197794</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>0.01488846852064759</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.009984274848837153</v>
+        <v>-0.006288186796209152</v>
       </c>
       <c r="BZ4" t="n">
         <v>-0</v>
@@ -2382,22 +2382,22 @@
         <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.07020637745793513</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
         <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.07226791950900879</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.02207592062514934</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0</v>
+        <v>0.01394967872563933</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.003702013994625216</v>
+        <v>-0.02564647996567193</v>
       </c>
       <c r="CI4" t="n">
         <v>-0</v>
@@ -2409,22 +2409,22 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.02221136389937245</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.0424043870403043</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0006581053892123374</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0.1140490399216899</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.02545501943210252</v>
+        <v>-0.1757243162206194</v>
       </c>
       <c r="CR4" t="n">
         <v>0</v>
@@ -2433,25 +2433,25 @@
         <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.04900012218697095</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.05683567922241931</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.01461546258810367</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.04409763680267578</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.0117733804552801</v>
+        <v>-0.01934477291433704</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2460,25 +2460,25 @@
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.02079034307766107</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.07856949220064104</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.005863572827954659</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0</v>
+        <v>-0.0056782525123841</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.0004841969024283487</v>
+        <v>0.0002442847854030615</v>
       </c>
       <c r="DJ4" t="n">
         <v>-0</v>
@@ -2490,25 +2490,25 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.02335551573515103</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.07350961093172279</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.008469340904695609</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0.04320206265762377</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.008894570797648847</v>
+        <v>-0.00684255266044714</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
         <v>-0</v>
@@ -2517,49 +2517,49 @@
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.02741038168382061</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>0.06130238256566233</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.02302295026597474</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.07655884876029197</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.01541100041280533</v>
+        <v>-0.02401909414745763</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.01268196932452691</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.0356188774424391</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.006509073402323689</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>0.07738099570011496</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.03920204315933103</v>
+        <v>-0.003560667028352124</v>
       </c>
       <c r="EK4" t="n">
         <v>-0</v>
@@ -2568,52 +2568,52 @@
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.0241072259560288</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.04261031724786267</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.001440642495875346</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>-0.03606552368534391</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.02914327879273069</v>
+        <v>-0.02902247283096973</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.03478325120783014</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
         <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.06536109702638261</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.0183794824349306</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>0.02171715821057696</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.002855691633185684</v>
+        <v>-0.0396523841928353</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
@@ -2622,52 +2622,52 @@
         <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.02588474013235519</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0.03195631732973755</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.006191405666331765</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0.05454445886291195</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.02515230997839538</v>
+        <v>-0.0186053576186381</v>
       </c>
       <c r="FL4" t="n">
         <v>-0</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.03784401895438278</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
         <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>0.001580264756750093</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.009199078208843511</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>-0.009068442961292363</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0001069232450041087</v>
+        <v>0.000519532962706345</v>
       </c>
       <c r="FU4" t="n">
         <v>-0</v>
@@ -2679,177 +2679,177 @@
         <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>6.250052414176191e-05</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>-0.00597220835810917</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.01268139422716369</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0.02251976247453349</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
         <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.01768454604831864</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.03460886308513484</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01475927310046902</v>
+        <v>-0.03020759073766605</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.02365603247346672</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02112428844300601</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06195332779170717</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.009542425661361835</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.003179513433417235</v>
+        <v>-0.0161367058351552</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>-0.003041601678026334</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.003035219440216767</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0392945262156205</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>-0.003831205861613085</v>
       </c>
       <c r="U5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0623602373993899</v>
+        <v>-0.01625853525482892</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>0.01787019890323363</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001762247830999222</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.004886459319578458</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.01218818185706404</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.04455315564547899</v>
+        <v>0.008701506208501783</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.00783300294628521</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.005834882028396795</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.02553415683215395</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.007179704352285293</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.0211172449164958</v>
+        <v>-0.01304148640509266</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0.005593364405496178</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.006589919604205006</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.00471039192611199</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.04156048822075047</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2858,187 +2858,187 @@
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.03373309842876329</v>
+        <v>-0.03370476922286599</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.01198628329646662</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.03205144356421016</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.07712730288957442</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.01185718763188487</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.01916328891192253</v>
+        <v>-0.009871291576804893</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.007229601603989739</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.0136017237182992</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.0009339719052390825</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
         <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>0.03263609798423175</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01040279447913872</v>
+        <v>0.01358633649816978</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.006390627747771129</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0.002553931352689061</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0.02519320679523513</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
         <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.01881540969826801</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0587954885666798</v>
+        <v>-0.02226177537394018</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>0.005646056456629951</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0.002469576153540941</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.06739664667199211</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
         <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.00435139998628192</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.008766644868531199</v>
+        <v>0.01130999517519279</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>0.01289128439401718</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.002917995708263646</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0.0143028468506887</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.001758697686727941</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.02283556139545794</v>
+        <v>0.002035708194445502</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.002783648472739853</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0.02493393693326971</v>
+        <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.01374546015480846</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>0.0009473385810425005</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.01176766357788767</v>
+        <v>0.01081140772135513</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0.01706865097824643</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.005582731575198324</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0.01936642062082881</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.01088612556695604</v>
       </c>
       <c r="DG5" t="n">
         <v>-0</v>
@@ -3047,79 +3047,79 @@
         <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.01661542338457338</v>
+        <v>0.01305745338351002</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>-0.0009412070168228854</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.005672840762184606</v>
+        <v>0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0.01165401653565153</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.007756728056583619</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
         <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.03392847373962925</v>
+        <v>0.01833054939225521</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.01062240331372217</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0.002266715831675075</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.02619961187237622</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.01164291937119425</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0005322703513220837</v>
+        <v>-0.01556957266174333</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>-0.005425173041945866</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.0161062037568257</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.01033000805838506</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
         <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.0006988116594100074</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
@@ -3128,106 +3128,106 @@
         <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01794779572819304</v>
+        <v>-0.00693455990120736</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.01383602046981935</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.002816194829944327</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0.0169610310317497</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>0.0074880182267768</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.02390305066102157</v>
+        <v>0.02288007840437774</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>0.01051919505171992</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.03042306271858159</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0.02167824378191817</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>0.003295960628571619</v>
       </c>
       <c r="EZ5" t="n">
         <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.01041708849336198</v>
+        <v>0.01059235575589497</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>0.01580119949853777</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.008691316669712196</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
         <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0.0211045802899631</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.01395721333022275</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.0363852095667011</v>
+        <v>-0.02787634802646007</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0.01337002332781242</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.02471813223610013</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0.02763834337520396</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.002263515124052133</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
@@ -3236,46 +3236,46 @@
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.002954940313696883</v>
+        <v>0.0002964308878237977</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.01903245909829185</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0.000628310038717057</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
         <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.00855368168337743</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.01674710119394415</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0.001227307742384806</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.01370352950831901</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0.02371443801149826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3304,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3331,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3385,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
         <v>0</v>
@@ -3628,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
@@ -3736,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
@@ -3763,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI6" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
@@ -3852,70 +3852,70 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.9220014565960145</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07358686129693344</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.2778947716155181</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02284535441349292</v>
+        <v>-0.09559957651461831</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1166496337346719</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.4778928171855836</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01886426028994397</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.07360059191997388</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0108334006267467</v>
+        <v>-0.1341561329036953</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09048543106908953</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.2214092877968034</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002872637925644471</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-0.129072678976378</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03915663282686475</v>
+        <v>-0.06508477817575173</v>
       </c>
       <c r="X7" t="n">
         <v>-0</v>
@@ -3924,52 +3924,52 @@
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01344004326266666</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.1785511686372633</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01426398861650047</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0.06137524030792538</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.0190594061408156</v>
+        <v>0.02509176398195724</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.04815036232183487</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.1453002302971834</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.01579067924333982</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0</v>
+        <v>-0.08935523384943357</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.03477395696964211</v>
+        <v>-0.07466322243171404</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3978,79 +3978,79 @@
         <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.003508920141791008</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>1.007585776942485</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.1340232974245365</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>-0.0683176473369968</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02635690883767266</v>
+        <v>0.2857306226620417</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1010169861110397</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.1014203332606681</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.01858436612775901</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.06971776995120639</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.006801305717643105</v>
+        <v>-0.2343080335216328</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.006606049814605152</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.1278369354274551</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05018714979379954</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.2555357983653837</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.05839437349566463</v>
+        <v>0.09185191757940524</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4059,25 +4059,25 @@
         <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.02963205189072983</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.57486911629128</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.02108914625686058</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>-0.04057403630709411</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0247215310233333</v>
+        <v>-0.0139829220440828</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
@@ -4089,22 +4089,22 @@
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.08549446788626021</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.2459400149240399</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.03658674131955952</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0.05308936099492181</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.003291944029575456</v>
+        <v>-0.07713474548619015</v>
       </c>
       <c r="CI7" t="n">
         <v>-0</v>
@@ -4116,22 +4116,22 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0.03089815109871383</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.03175271161283606</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.006571647143700626</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.285876520948549</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.0005143782590891698</v>
+        <v>-0.2666672895273893</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.06186888524745661</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.1959311595867471</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02060621571012345</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.1364950315289026</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.01635883229863896</v>
+        <v>-0.07074147342153365</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
@@ -4170,25 +4170,25 @@
         <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0.03430470330145464</v>
+        <v>-0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.07615769232795752</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0.01187503651756481</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>-0.02415908815951241</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.003667764321791475</v>
+        <v>0.01656724529863366</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
         <v>-0</v>
@@ -4197,25 +4197,25 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.02886691384573803</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>-0</v>
+        <v>-0.1272425473031062</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.001886333826242886</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>0.07493542301293402</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.003834358548389018</v>
+        <v>-0.03857877477754681</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
         <v>-0</v>
@@ -4224,49 +4224,49 @@
         <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.02445758911733391</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0</v>
+        <v>0.03437391791093696</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.02863956157193335</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.109249538171649</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.006222447566005434</v>
+        <v>-0.145318594681462</v>
       </c>
       <c r="EB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
         <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0.02204910119805124</v>
+        <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.1142249821274946</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.02512949302248601</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>0.07610910484780273</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.04308663205155255</v>
+        <v>-0.006520436317959151</v>
       </c>
       <c r="EK7" t="n">
         <v>-0</v>
@@ -4275,25 +4275,25 @@
         <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>-0.02996963786304827</v>
+        <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.1913408224767314</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.01598339396285332</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0</v>
+        <v>-0.1349227740066157</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.0199715364994251</v>
+        <v>-0.1553088349266127</v>
       </c>
       <c r="ET7" t="n">
         <v>-0</v>
@@ -4302,25 +4302,25 @@
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0.04888512206345424</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
         <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.2120907018754543</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.02752397803391663</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.089214261498473</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.003064834615896974</v>
+        <v>-0.08147209820082689</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
@@ -4332,52 +4332,52 @@
         <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0.04440076722557117</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>-0.04708975182714379</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.02390057764268772</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0.1549558471802119</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.0267569401876586</v>
+        <v>-0.046871773896155</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0.05446515522525133</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.03113295124100276</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.01934406565946363</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>-0.1124558661267754</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.002623456286479212</v>
+        <v>-0.0894494300831689</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
@@ -4386,19 +4386,19 @@
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0.0001488263299975412</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.0806453017107039</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.01132040063068305</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.06718955160958243</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
@@ -4407,13 +4407,13 @@
         <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0.02984816945675486</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4496,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4523,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -4604,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4685,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4901,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.08570394655204752</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -4999,25 +4999,25 @@
         <v>-0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02666008303431314</v>
+        <v>-0.004762174097094509</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>-0.02961833794888943</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01099056890361075</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08253056206630978</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.02924264110628583</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5026,25 +5026,25 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00579012141142649</v>
+        <v>-0.01739032445875397</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>-0.00171657446348376</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0007549337266593633</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04524639086564714</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>-0.001873096068095288</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5053,133 +5053,133 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01772941967944294</v>
+        <v>-0.005628147889032029</v>
       </c>
       <c r="X9" t="n">
-        <v>-0</v>
+        <v>0.01660323204839247</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.01429742099274128</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.01009814432810905</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.02067962637068243</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.005748851995983448</v>
+        <v>0.02550400116321969</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.006934459581603959</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.02184494221597201</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.008246821214491223</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.01415472158585814</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.001446273492856004</v>
+        <v>-0.009751919972095093</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>-0.0143844363272716</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.004944383232954898</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.006409304338622294</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.08939622249811574</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.07181964177668608</v>
+        <v>0.01107356736227258</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0.01205724363012216</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.05825483799387397</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.07411974104484738</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0</v>
+        <v>0.01823576958225126</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.02973577742098811</v>
+        <v>-0.01816550672536588</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>-0.008555819791448899</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0.01968871644870781</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.003038834351128814</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.0388842384491306</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
@@ -5188,79 +5188,79 @@
         <v>-0</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.02080589556037725</v>
+        <v>0.03097846658137151</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0.007507645210629653</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0.01902603620898349</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
         <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0.01402573138687842</v>
+        <v>-0</v>
       </c>
       <c r="BU9" t="n">
         <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.03784207187519049</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>-0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.07546993506138648</v>
+        <v>-0.01490092246967766</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>0.02511682159198671</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.004576618026348367</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
         <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.04159128636506006</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.01008039226872271</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
         <v>0</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.01600574489641916</v>
+        <v>-0.002722696655871586</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>0.0151426166205462</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.007715338944024566</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0.006759135886653307</v>
+        <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.01175768104221819</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -5269,52 +5269,52 @@
         <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.05229251620313983</v>
+        <v>0.001405722380909167</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>-0.03573666324852157</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.02061733269615563</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.04718974825207107</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.0040684016751126</v>
       </c>
       <c r="CX9" t="n">
         <v>0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.0114287046123915</v>
+        <v>-0.00231358940861706</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0.01742391690982365</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.001125166554010667</v>
+        <v>-0</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0.01879389738344997</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
         <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>0.003949953206948558</v>
       </c>
       <c r="DG9" t="n">
         <v>-0</v>
@@ -5323,79 +5323,79 @@
         <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.04625904390611384</v>
+        <v>0.02745415096121482</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0.01838663058192442</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.0217599110610374</v>
+        <v>0</v>
       </c>
       <c r="DL9" t="n">
         <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>-0.009756047988581155</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
         <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.01176881754091003</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.005413166753972893</v>
+        <v>0.01906123439975049</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>-6.255685713563299e-05</v>
       </c>
       <c r="DT9" t="n">
-        <v>-0.001466919907384419</v>
+        <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.02590375840865024</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.03356658264065009</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
         <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.03056525130922755</v>
+        <v>-0.04456386142514099</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>-0.0142310128957808</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0.01841212489981713</v>
+        <v>-0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0.01409505083301757</v>
+        <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.002890611388814356</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
@@ -5404,52 +5404,52 @@
         <v>0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.002772611497311611</v>
+        <v>-0.005204684124027757</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>0.0007211932348093666</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.003057177100715785</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0.01822572272668283</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>0.002891195786095624</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.008965116348047189</v>
+        <v>-0.0224055395843075</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0.05206023078482194</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0.03879732999909025</v>
+        <v>0</v>
       </c>
       <c r="EV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0.0177476194766186</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>0.001800042758800274</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
@@ -5458,52 +5458,52 @@
         <v>0</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.01148080004205056</v>
+        <v>-0.002231583772566117</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>0.01878619840872086</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.00138826141635667</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0.01252361866074563</v>
+        <v>-0</v>
       </c>
       <c r="FG9" t="n">
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.02662077208899953</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
         <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.00246748103860597</v>
+        <v>-0.04487320654000536</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>0.001162484106135798</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0.01543663555323412</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
         <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0.02415438554056175</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.005503640204874609</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
@@ -5512,46 +5512,46 @@
         <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.01273840902869546</v>
+        <v>-0.01375540401250621</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>0.03552260390470823</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0.02216232405435706</v>
+        <v>-0</v>
       </c>
       <c r="FW9" t="n">
         <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.01401667960579549</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.02774419364632078</v>
       </c>
       <c r="GA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>-0</v>
+        <v>-0.00839698709238863</v>
       </c>
       <c r="GE9" t="n">
-        <v>-0.02932011284717792</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0.03532230179109461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5559,70 +5559,70 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2833546286738226</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.06291389446412189</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.101592918171183</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004821537629923555</v>
+        <v>-0.07828584957099639</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
         <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1011759454713379</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.175840782320278</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.03194457116998958</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.05602785981638386</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02939860696773616</v>
+        <v>-0.1048957704953753</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
         <v>-0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08356367428018396</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.07022290279615392</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.006376709127757716</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.01112837803677517</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.002528733402847897</v>
+        <v>0.03056978923561534</v>
       </c>
       <c r="X10" t="n">
         <v>-0</v>
@@ -5631,52 +5631,52 @@
         <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01268625289728698</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.06357975970496098</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.01227307815847779</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>-0.03374096208081235</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.006937312733879543</v>
+        <v>0.001373485987285105</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.02526436448633904</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.02690771333750823</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.0140978687195331</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0.03910269674382059</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.01819349464672335</v>
+        <v>-0.07197715897299557</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
@@ -5688,103 +5688,103 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.002737098723974028</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.3386387861532482</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.09801052897000276</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>-0.0214424891413207</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.01060926374778178</v>
+        <v>0.1139089360061006</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.07417537291497761</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>0.01891126431104804</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.02029849391043792</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0</v>
+        <v>-0.0391658876479334</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.00531181514687093</v>
+        <v>-0.1138339961744595</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0.002067907044458497</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
         <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.0956037555070904</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.03469351731901058</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0</v>
+        <v>0.07075030787540444</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.05236725966769586</v>
+        <v>0.1088760606692217</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0.01904506805145854</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.1798341851604117</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0.02292899352978152</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>-0.005293176254969873</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.01943802580136785</v>
+        <v>0.03083261787321953</v>
       </c>
       <c r="BZ10" t="n">
         <v>-0</v>
@@ -5793,25 +5793,25 @@
         <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.05595329898705033</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.06253279497427035</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.02689741114417597</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0</v>
+        <v>0.007485216739666451</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.002359088668224701</v>
+        <v>0.004349524878456553</v>
       </c>
       <c r="CI10" t="n">
         <v>-0</v>
@@ -5823,22 +5823,22 @@
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0.02302920845102725</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.05050663905422759</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.002018100450714257</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
+        <v>-0.09244376485940768</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.0143041209323577</v>
+        <v>-0.09559192036448076</v>
       </c>
       <c r="CR10" t="n">
         <v>0</v>
@@ -5850,22 +5850,22 @@
         <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.04040640640427453</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.03994324891788106</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.01676729730262085</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>0.02781910925677175</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.005050847978935315</v>
+        <v>0.006755827615596095</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
@@ -5874,28 +5874,28 @@
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0.02501519030344586</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>0.01260420671892936</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.03539465551656885</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0</v>
+        <v>0.008895758249934207</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.003194532130768131</v>
+        <v>-0.01921513515360837</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
         <v>-0</v>
@@ -5904,49 +5904,49 @@
         <v>0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.03915335920822268</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.06320730251582594</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0003828015394697682</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>-0</v>
+        <v>-0.05839930640913195</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.01819471328013102</v>
+        <v>-0.0009959059793029875</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
         <v>0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.01685309269268874</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.02987837793026343</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.01373783752473118</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0.03899126815159416</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.000188286679253639</v>
+        <v>-0.01405375221085923</v>
       </c>
       <c r="EB10" t="n">
         <v>0</v>
@@ -5955,52 +5955,52 @@
         <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0.0146470098681983</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.02038639705360021</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.01699718641821106</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0</v>
+        <v>0.07877080679412624</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.02664020129954466</v>
+        <v>0.04417841051609474</v>
       </c>
       <c r="EK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0.02150579137492522</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.05231512008821688</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.01161071415485561</v>
+        <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0</v>
+        <v>-0.04554248992468066</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.008092933049161683</v>
+        <v>0.01554087327171749</v>
       </c>
       <c r="ET10" t="n">
         <v>-0</v>
@@ -6009,25 +6009,25 @@
         <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0.03698975414226414</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>-0.04929368816855415</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.02154311995058914</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>0.02047144966939845</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.007441201184521946</v>
+        <v>0.01798717823996143</v>
       </c>
       <c r="FC10" t="n">
         <v>-0</v>
@@ -6036,91 +6036,91 @@
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0.03140069603405445</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>0.04067764435631707</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.02832155715638471</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0</v>
+        <v>0.0569145997504086</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.02234002375472701</v>
+        <v>-0.01370042885716283</v>
       </c>
       <c r="FL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM10" t="n">
         <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0.03162127416717607</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.006559856081812816</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.01459855921495611</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0</v>
+        <v>0.01488170742817292</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.003391903955107392</v>
+        <v>0.0370520071993499</v>
       </c>
       <c r="FU10" t="n">
         <v>-0</v>
       </c>
       <c r="FV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW10" t="n">
         <v>0</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0045624300353194</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.01296508433677085</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0.005748314237808539</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0.02733010770851524</v>
       </c>
       <c r="GC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD10" t="n">
         <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>-0.02851014912137911</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -6149,13 +6149,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6176,13 +6176,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -6203,13 +6203,13 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6230,13 +6230,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -6257,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -6284,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
@@ -6311,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
@@ -6338,13 +6338,13 @@
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -6365,13 +6365,13 @@
         <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -6392,13 +6392,13 @@
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
         <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG11" t="n">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH11" t="n">
         <v>0</v>
@@ -6554,13 +6554,13 @@
         <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
@@ -6608,13 +6608,13 @@
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI11" t="n">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
         <v>0</v>
@@ -6697,16 +6697,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.2762252416738939</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0257149574449899</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>-0.02988091522559826</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02119270769886465</v>
+        <v>-0.05023935493558282</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
@@ -6718,103 +6718,103 @@
         <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06623049603157072</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.143048108030468</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.01008966543061052</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0</v>
+        <v>-0.01349544006219884</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.02424934380436034</v>
+        <v>-0.05387329518898853</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06113311921123535</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.04939501435335723</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.0008325506930305917</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-0.02038036977198033</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.01020710556766689</v>
+        <v>0.04088070515652634</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
         <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0278945742397812</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.04798793074168704</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.02348551276333809</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0</v>
+        <v>-0.0125863115642732</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.007140068655691782</v>
+        <v>0.008091239377812641</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.02862969576620927</v>
+        <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>-0.01427636085149869</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.003734188133920477</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0.01477575277899975</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.02426324969798252</v>
+        <v>-0.04232470563602584</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -6826,52 +6826,52 @@
         <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.0005615588432908516</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.2508923507889798</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.02982770508008274</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>0.02876335495707849</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0231773830438002</v>
+        <v>0.05384870401972781</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.05888823642652784</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>0.04304081534367396</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.02137067281815247</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0</v>
+        <v>-0.05727969440138</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.002390903359117969</v>
+        <v>-0.05495134102118232</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>0</v>
@@ -6880,49 +6880,49 @@
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0.02656341213749417</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.1167006007723582</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.04470019690201891</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>0.02398345452974286</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.03463687798080491</v>
+        <v>0.09865390734347176</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0.02507281488381908</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.1467429892704941</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.003202378155556019</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>0.02767218571969798</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.02912669999773721</v>
+        <v>0.02566301423888356</v>
       </c>
       <c r="BZ12" t="n">
         <v>-0</v>
@@ -6934,49 +6934,49 @@
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.05484017763492389</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
         <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.05612390633133235</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.01948010279457683</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0.006316730715198187</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.005893892551940999</v>
+        <v>0.004681924624143619</v>
       </c>
       <c r="CI12" t="n">
         <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0.01028176467156505</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
         <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.0578103291166698</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.004215274569160776</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0.04462073924688541</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.0416640935215678</v>
+        <v>-0.06634859720165377</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6988,22 +6988,22 @@
         <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.04355056868186964</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
         <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.03545366890398363</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.01947295501016467</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0.008346286014633972</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.01426630542543447</v>
+        <v>9.170166046191923e-05</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
@@ -7015,25 +7015,25 @@
         <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0.01362341447344217</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.009291133487398998</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.0390238469245624</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0</v>
+        <v>0.05919675354919952</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.00164596805392745</v>
+        <v>0.007201546123536152</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
         <v>-0</v>
@@ -7042,49 +7042,49 @@
         <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.005685493176070502</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.063466870541319</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0.03458241886946048</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0</v>
+        <v>-0.0007989199810870257</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.008471131894725167</v>
+        <v>-0.01911245686312148</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU12" t="n">
         <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.0273695970013243</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.00381230000142832</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.004135505791912276</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0.009026750249685482</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.01022443254498035</v>
+        <v>-0.0261859912152989</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
@@ -7096,130 +7096,130 @@
         <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0.01711546451068475</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
         <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.0252694031643294</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.01117693418538737</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>-0.001898592101170465</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.02194174290409417</v>
+        <v>0.05102767659473094</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0.008393831744538038</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.02484206517393921</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.03115070513799604</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0</v>
+        <v>0.002853241946450607</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.01175912313071012</v>
+        <v>0.02547876668166824</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0.02517946286029936</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
         <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.03464195418179657</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.01993695032356772</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>0.0002958823973212805</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.001194653599907782</v>
+        <v>0.01398241447187081</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
         <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0.02040331068986146</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>0.008169320215385911</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.02675925158795161</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>0.01821149048770684</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.03123275798252665</v>
+        <v>-0.03041852253899668</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
         <v>-0</v>
       </c>
       <c r="FN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0.04391317951750759</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.03631098310843467</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.009935824310515373</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0</v>
+        <v>-0.02582875069456097</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.02649561780589386</v>
+        <v>0.004858180666787133</v>
       </c>
       <c r="FU12" t="n">
         <v>0</v>
@@ -7228,22 +7228,22 @@
         <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0.00684972684032006</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.002242319216275237</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.009687046795536385</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>-0.02656567340893892</v>
       </c>
       <c r="GC12" t="n">
         <v>-0</v>
@@ -7252,13 +7252,13 @@
         <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>-0.01839564993739839</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -7266,19 +7266,19 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.2238815771624307</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1183125486901084</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.05876657935794823</v>
+        <v>-0.0004178124418767925</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>-0.1401281384994044</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -7287,25 +7287,25 @@
         <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1704233335763951</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0.1525507066313521</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.06034273701331455</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.05386948394587981</v>
+        <v>-0.01676812223351809</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>-0.1109883377759376</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -7314,79 +7314,79 @@
         <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1410799988496759</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.01604090620744128</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.04215162553592588</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.120584843497727</v>
+        <v>-0.01322940629374845</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>-0.005229082238178832</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05485577937729254</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.02872939884146045</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.003306376286577184</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.02322538196179103</v>
+        <v>0.01652132666449051</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>-0.008871304328551073</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.06135286476408169</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.009326157404491785</v>
       </c>
       <c r="AM13" t="n">
         <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.0260592290388503</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.02668341052952093</v>
+        <v>-0.01872370810112973</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>-0.04231064350821406</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -7395,25 +7395,25 @@
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.02226528704585725</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>0.1539435205954069</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.08312135424478802</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.0218582866559443</v>
+        <v>-0.001163824199992763</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.06637165207244131</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -7422,52 +7422,52 @@
         <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.1046871195155068</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0</v>
+        <v>0.07038658543880516</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0159355417084997</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.03242104277284592</v>
+        <v>-0.03634243292216048</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>-0.05937618712670126</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0.004573494336314287</v>
+        <v>-0</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0</v>
+        <v>0.07047877781091035</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.008503416062696632</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.008509518325649324</v>
+        <v>0.04690402964286691</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.0102095025138908</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,295 +7476,295 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0.06416714086477904</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
         <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0</v>
+        <v>0.07974364052110731</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.08649721173939975</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.002909964809418573</v>
+        <v>-0.01432197699091665</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.01447388254460476</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.1406551577952312</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
         <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.04443681172883662</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.03650700600202483</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0090573025873865</v>
+        <v>-0.0080721638974475</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.03309475031446531</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0.01888318560736667</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0.03046734119778527</v>
       </c>
       <c r="CO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.02829664463851565</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.06006818831441807</v>
+        <v>0.01926597158254763</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>-0.01904617424061479</v>
       </c>
       <c r="CS13" t="n">
         <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.04566030033336246</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
         <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.02917230833885807</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.03886540628889767</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.004354917781832749</v>
+        <v>-0.007466303756701008</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0.03139321846200504</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0.02784948083020933</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.01316276236747196</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.02383910643820109</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0009681859378555177</v>
+        <v>0.002051309423804777</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>0.004126722499807811</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.003410955645942417</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.03014455734280325</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0.01362520231825056</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.01035394067733021</v>
+        <v>0.01083342570399731</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.01290346142683257</v>
       </c>
       <c r="DT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.07765768195868539</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>-0.0008743850136676855</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.02426201090269566</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.02344763602545601</v>
+        <v>-0.0147977150899504</v>
       </c>
       <c r="EB13" t="n">
-        <v>0</v>
+        <v>-0.009821271636831955</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0383395978762008</v>
+        <v>0</v>
       </c>
       <c r="EF13" t="n">
         <v>-0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.01629809714187399</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0532612644870008</v>
+        <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0405662648750369</v>
+        <v>0.006393810370857008</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.02114707821312171</v>
       </c>
       <c r="EL13" t="n">
         <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0.03328792875934253</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.02266826729597521</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.04720873735061613</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.004820755633255313</v>
+        <v>-0.004161226869851361</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>0.04987443443258149</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0.05894028176024396</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
         <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.03212969705020352</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.03130383920923233</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.005577428542405346</v>
+        <v>-0.002067083161612181</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>0.03586987147657198</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0.03968063914594862</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
+        <v>-0.009966807537844621</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.01312494583975493</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.04129600777781349</v>
+        <v>-0.02450720255252277</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>0.02007016203650738</v>
       </c>
       <c r="FM13" t="n">
         <v>-0</v>
@@ -7773,61 +7773,61 @@
         <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0.02929495384712976</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.01656175611585526</v>
       </c>
       <c r="FR13" t="n">
         <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0.00276000228789606</v>
+        <v>0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.0007239276249946112</v>
+        <v>-0.03254786776468042</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0.001910338220346582</v>
       </c>
       <c r="FV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW13" t="n">
         <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0.01631026908428091</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>-0.03185289017775226</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.04388196479202491</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.02516801095259726</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>-0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.01042803930333781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7835,25 +7835,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-0.2713920259047215</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>0.4674887659434525</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04642073832077537</v>
+        <v>-0.1717145474556389</v>
       </c>
       <c r="F14" t="n">
-        <v>0.22130822872287</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
         <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.06741665027258828</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>-0</v>
@@ -7862,79 +7862,79 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0.1543278094167999</v>
       </c>
       <c r="M14" t="n">
-        <v>-0</v>
+        <v>0.4350887691328247</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.0186472510749087</v>
+        <v>0.03413369257045911</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1976416649540511</v>
+        <v>-0</v>
       </c>
       <c r="P14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06840978676471722</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0.03695566141732533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.09320280957839773</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.05019966741305259</v>
+        <v>0.0462567315673718</v>
       </c>
       <c r="X14" t="n">
-        <v>0.032891356969612</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.02803857577709957</v>
+        <v>-0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>-0.01263845319825641</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0</v>
+        <v>-0.03076335599084249</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.0651208766449945</v>
+        <v>-0.06678958734287736</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.02713735901341278</v>
+        <v>-0</v>
       </c>
       <c r="AH14" t="n">
         <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.01898174540585539</v>
+        <v>-0</v>
       </c>
       <c r="AJ14" t="n">
         <v>-0</v>
@@ -7943,28 +7943,28 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>0.01800484437191826</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>0.01499203002036055</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.03347795701342628</v>
+        <v>0.0537903693884412</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.01117063651585517</v>
+        <v>-0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.01462005376424365</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
@@ -7973,76 +7973,76 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>-0.1203890799250995</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>0.2775424142695002</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.01810762486538895</v>
+        <v>-0.2146596411310845</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.08955701777446554</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
         <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.03753411273978285</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
         <v>-0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>-0.04714373892103316</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0</v>
+        <v>0.1124841055558299</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.01326620237184725</v>
+        <v>-0.1398744445589299</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.02864129522109835</v>
+        <v>-0</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.03573793842405519</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>0.0523973278937858</v>
       </c>
       <c r="BO14" t="n">
-        <v>0</v>
+        <v>0.03554094209032531</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.01476701573665258</v>
+        <v>-0.2354941519274024</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0.02173658926365195</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
         <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0007699008325117737</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>0</v>
@@ -8054,49 +8054,49 @@
         <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>-0.09909910004157414</v>
       </c>
       <c r="BX14" t="n">
-        <v>0</v>
+        <v>0.1735016804746111</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.06006878949548409</v>
+        <v>-0.1384560249384326</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.1054220149724673</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
         <v>-0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.01423537034420234</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>0</v>
+        <v>0.09310089886401426</v>
       </c>
       <c r="CG14" t="n">
-        <v>0</v>
+        <v>-0.09428287647893195</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.01262476329008662</v>
+        <v>-0.0161010829557872</v>
       </c>
       <c r="CI14" t="n">
-        <v>-0.03995377553825424</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.02294047579254661</v>
+        <v>-0</v>
       </c>
       <c r="CL14" t="n">
         <v>0</v>
@@ -8105,28 +8105,28 @@
         <v>-0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>0.01055555172610987</v>
       </c>
       <c r="CP14" t="n">
-        <v>0</v>
+        <v>-0.0097995213366063</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.0280409024916644</v>
+        <v>0.1259013266618462</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.07097639316386188</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.02954249044051122</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV14" t="n">
         <v>0</v>
@@ -8135,22 +8135,22 @@
         <v>-0</v>
       </c>
       <c r="CX14" t="n">
-        <v>-0</v>
+        <v>0.05888633898892797</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0</v>
+        <v>-0.07375734259386021</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.01430334639317772</v>
+        <v>-0.03720316251056358</v>
       </c>
       <c r="DA14" t="n">
-        <v>-0.04353754694512212</v>
+        <v>0</v>
       </c>
       <c r="DB14" t="n">
         <v>-0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.03084920197269811</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
         <v>-0</v>
@@ -8162,52 +8162,52 @@
         <v>0</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0</v>
+        <v>-0.003103298142165385</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>-0.09418537837694557</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.01174133303001079</v>
+        <v>0.01319673520542707</v>
       </c>
       <c r="DJ14" t="n">
-        <v>-0.01337384142853938</v>
+        <v>0</v>
       </c>
       <c r="DK14" t="n">
         <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.006130784157133588</v>
+        <v>-0</v>
       </c>
       <c r="DM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP14" t="n">
-        <v>0</v>
+        <v>0.08982966660538205</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0</v>
+        <v>-0.03760661729374697</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.00032735759184571</v>
+        <v>0.05321026511402761</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0.0001151449207246191</v>
+        <v>-0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.03390425605503056</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
         <v>-0</v>
@@ -8216,22 +8216,22 @@
         <v>-0</v>
       </c>
       <c r="DY14" t="n">
-        <v>0</v>
+        <v>0.03983219013552468</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0</v>
+        <v>0.04292437703844095</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.009082656250705402</v>
+        <v>0.02350830427375013</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0.01407421306214212</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.007539861981669651</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
         <v>-0</v>
@@ -8240,25 +8240,25 @@
         <v>-0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH14" t="n">
-        <v>0</v>
+        <v>0.1153293570571029</v>
       </c>
       <c r="EI14" t="n">
-        <v>0</v>
+        <v>-0.1192780297744908</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.03289209385609548</v>
+        <v>-0.03604232929785856</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0.06702390045313786</v>
+        <v>0</v>
       </c>
       <c r="EL14" t="n">
         <v>0</v>
       </c>
       <c r="EM14" t="n">
-        <v>-0.01238248848139532</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
         <v>0</v>
@@ -8267,79 +8267,79 @@
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0.07730050945238631</v>
       </c>
       <c r="ER14" t="n">
-        <v>0</v>
+        <v>-0.06852533128791101</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.008956324567155316</v>
+        <v>-0.02150484559921831</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0.03645648519115209</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
         <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.02697886070581728</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
         <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0</v>
+        <v>0.07909320403952123</v>
       </c>
       <c r="FA14" t="n">
-        <v>0</v>
+        <v>-0.0849750051170132</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.008234333965365485</v>
+        <v>-0.023496901078208</v>
       </c>
       <c r="FC14" t="n">
-        <v>-0.04372420451834954</v>
+        <v>0</v>
       </c>
       <c r="FD14" t="n">
         <v>0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.03124760890861557</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
         <v>0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH14" t="n">
         <v>0</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>0.01536016367929654</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0</v>
+        <v>0.07522175049774142</v>
       </c>
       <c r="FK14" t="n">
-        <v>-0.00549339188788639</v>
+        <v>-0.08798364181380684</v>
       </c>
       <c r="FL14" t="n">
-        <v>-0.01952184731038778</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.04316275698967458</v>
+        <v>-0</v>
       </c>
       <c r="FO14" t="n">
         <v>0</v>
@@ -8348,52 +8348,52 @@
         <v>-0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>0.01193308486977617</v>
       </c>
       <c r="FS14" t="n">
-        <v>0</v>
+        <v>0.01077138643607506</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.08484552737036093</v>
+        <v>-0.06561818617602681</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.007378357741904957</v>
+        <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.004264725036981115</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
         <v>0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GA14" t="n">
-        <v>0</v>
+        <v>0.06889672824767992</v>
       </c>
       <c r="GB14" t="n">
-        <v>-0</v>
+        <v>0.0233508787178196</v>
       </c>
       <c r="GC14" t="n">
         <v>0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.01804618019418366</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>-0.01351258480379818</v>
+        <v>-0</v>
       </c>
       <c r="GG14" t="n">
         <v>0</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>-0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>-0</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>-0</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>-0</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>-0</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>-0</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8578,7 +8578,7 @@
         <v>-0</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>-0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8632,7 +8632,7 @@
         <v>-0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8659,7 +8659,7 @@
         <v>-0</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
         <v>0</v>
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8686,7 +8686,7 @@
         <v>-0</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
         <v>0</v>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>-0</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         <v>-0</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT15" t="n">
         <v>0</v>
@@ -8809,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8821,7 +8821,7 @@
         <v>-0</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>0</v>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>-0</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU15" t="n">
         <v>0</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>-0</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD15" t="n">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI15" t="n">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>-0</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM15" t="n">
         <v>0</v>
@@ -8970,136 +8970,136 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.7003144703240248</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1804413959417553</v>
+        <v>0.205655656289811</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3107346855352596</v>
+        <v>1.026140977944456</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4827027230669428</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>-0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.53218311405264</v>
       </c>
       <c r="L16" t="n">
         <v>-0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2957506192357986</v>
+        <v>0.04699799899504787</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.2487064106110912</v>
+        <v>0.8844704594660923</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5670087708951055</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>-0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-0.04194352853802243</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V16" t="n">
         <v>-0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1199213337982717</v>
+        <v>0.1336960578225319</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.04096796754729726</v>
+        <v>0.05198401444932234</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1921267732628122</v>
+        <v>-0</v>
       </c>
       <c r="AA16" t="n">
         <v>-0</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0.07054025168881072</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.07273822469244133</v>
+        <v>0.02152473731719925</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.004626002816183989</v>
+        <v>0.03527858952691146</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.03516145019600504</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>-0.08033701870268153</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
         <v>-0</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.1997038817150033</v>
+        <v>-0.02339251278766288</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0.01637064173342304</v>
+        <v>0.1411806023768922</v>
       </c>
       <c r="AQ16" t="n">
         <v>-0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.01440173139933177</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
         <v>-0</v>
@@ -9108,25 +9108,25 @@
         <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>-0.3896558316644269</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.05045236409040485</v>
+        <v>0.1824017199011367</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0.1460489906182893</v>
+        <v>0.5680457729559656</v>
       </c>
       <c r="AZ16" t="n">
         <v>-0</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.2431937338626506</v>
+        <v>0</v>
       </c>
       <c r="BB16" t="n">
         <v>-0</v>
@@ -9135,169 +9135,169 @@
         <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>-0.2644471257703686</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.1876056326841953</v>
+        <v>0.1115468654359296</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0.0553823142829964</v>
+        <v>0.2356819412487435</v>
       </c>
       <c r="BI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.1277263313490395</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>-0</v>
+        <v>-0.2266396987214865</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.01057214933308469</v>
+        <v>-0.08854685889052873</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.03041622243097341</v>
+        <v>0.02192399888022407</v>
       </c>
       <c r="BR16" t="n">
         <v>0</v>
       </c>
       <c r="BS16" t="n">
-        <v>-0.03908768280339894</v>
+        <v>-0</v>
       </c>
       <c r="BT16" t="n">
         <v>-0</v>
       </c>
       <c r="BU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>-0</v>
+        <v>-0.2836484257586062</v>
       </c>
       <c r="BW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX16" t="n">
         <v>-0</v>
       </c>
       <c r="BY16" t="n">
-        <v>-0.06320152404107521</v>
+        <v>0.04710402786634522</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-0.1842116397622205</v>
+        <v>0.2954565879739654</v>
       </c>
       <c r="CA16" t="n">
         <v>-0</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.1880239243671631</v>
+        <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD16" t="n">
         <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0</v>
+        <v>0.1357974999377761</v>
       </c>
       <c r="CF16" t="n">
         <v>-0</v>
       </c>
       <c r="CG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.06055508797003636</v>
+        <v>-0.03618657728704906</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.05720979034059745</v>
+        <v>-0.1722295822184476</v>
       </c>
       <c r="CJ16" t="n">
         <v>0</v>
       </c>
       <c r="CK16" t="n">
-        <v>-0.08463859990839746</v>
+        <v>-0</v>
       </c>
       <c r="CL16" t="n">
         <v>-0</v>
       </c>
       <c r="CM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>0.07038093452237335</v>
       </c>
       <c r="CO16" t="n">
         <v>-0</v>
       </c>
       <c r="CP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.1082933937817789</v>
+        <v>-0.1216231826030716</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0.05545812581395446</v>
+        <v>0.05019988756528392</v>
       </c>
       <c r="CS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.04690650594931301</v>
+        <v>0</v>
       </c>
       <c r="CU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW16" t="n">
-        <v>-0</v>
+        <v>0.1051953402666872</v>
       </c>
       <c r="CX16" t="n">
         <v>0</v>
       </c>
       <c r="CY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.05096211959581658</v>
+        <v>-0.03265290375986804</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.06321082945896493</v>
+        <v>-0.1610522528340039</v>
       </c>
       <c r="DB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC16" t="n">
-        <v>-0.1201374727776696</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF16" t="n">
-        <v>-0</v>
+        <v>0.0476490491710258</v>
       </c>
       <c r="DG16" t="n">
         <v>0</v>
@@ -9306,16 +9306,16 @@
         <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.0429631546875933</v>
+        <v>-0.1570659987051416</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.01665770119355861</v>
+        <v>0.00977342687967179</v>
       </c>
       <c r="DK16" t="n">
         <v>-0</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0.01718473285454995</v>
+        <v>-0</v>
       </c>
       <c r="DM16" t="n">
         <v>-0</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="DO16" t="n">
-        <v>-0</v>
+        <v>0.04655919104029107</v>
       </c>
       <c r="DP16" t="n">
         <v>-0</v>
@@ -9333,25 +9333,25 @@
         <v>-0</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.0388460046371624</v>
+        <v>0.008537785173568454</v>
       </c>
       <c r="DS16" t="n">
-        <v>-0.01226090246031572</v>
+        <v>0.08513490918137259</v>
       </c>
       <c r="DT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.03854398336535459</v>
+        <v>-0</v>
       </c>
       <c r="DV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>0</v>
+        <v>-0.01485170521057556</v>
       </c>
       <c r="DY16" t="n">
         <v>0</v>
@@ -9360,25 +9360,25 @@
         <v>-0</v>
       </c>
       <c r="EA16" t="n">
-        <v>-0.02631677536922451</v>
+        <v>0.06411952547542912</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.005255798996425449</v>
+        <v>-0.05525078674026609</v>
       </c>
       <c r="EC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED16" t="n">
-        <v>-0.02841966646219526</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
         <v>-0</v>
       </c>
       <c r="EF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>0.1206035740851972</v>
       </c>
       <c r="EH16" t="n">
         <v>-0</v>
@@ -9387,79 +9387,79 @@
         <v>-0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.04121713973704854</v>
+        <v>-0.08167537952083161</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.08233959504916075</v>
+        <v>-0.1523629843260345</v>
       </c>
       <c r="EL16" t="n">
         <v>0</v>
       </c>
       <c r="EM16" t="n">
-        <v>-0.07975488156371098</v>
+        <v>0</v>
       </c>
       <c r="EN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO16" t="n">
         <v>-0</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0</v>
+        <v>0.04392153538909991</v>
       </c>
       <c r="EQ16" t="n">
         <v>-0</v>
       </c>
       <c r="ER16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES16" t="n">
-        <v>-0.08977771167481639</v>
+        <v>-0.09174754941895624</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.04899017849167746</v>
+        <v>-0.02327583101063512</v>
       </c>
       <c r="EU16" t="n">
         <v>0</v>
       </c>
       <c r="EV16" t="n">
-        <v>-0.06495697130023058</v>
+        <v>-0</v>
       </c>
       <c r="EW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>0.09655867996757575</v>
       </c>
       <c r="EZ16" t="n">
         <v>-0</v>
       </c>
       <c r="FA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.07174384120598974</v>
+        <v>-0.05901205289109376</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.06497393924408891</v>
+        <v>-0.1667056595649672</v>
       </c>
       <c r="FD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE16" t="n">
-        <v>-0.117674352347182</v>
+        <v>-0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG16" t="n">
         <v>-0</v>
       </c>
       <c r="FH16" t="n">
-        <v>0</v>
+        <v>0.06588430176579278</v>
       </c>
       <c r="FI16" t="n">
         <v>-0</v>
@@ -9468,55 +9468,55 @@
         <v>0</v>
       </c>
       <c r="FK16" t="n">
-        <v>-0.03628736275816874</v>
+        <v>0.0279240643535699</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.01526965613138732</v>
+        <v>-0.1354326642533302</v>
       </c>
       <c r="FM16" t="n">
         <v>-0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.003748641342028974</v>
+        <v>0</v>
       </c>
       <c r="FO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP16" t="n">
         <v>-0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-0</v>
+        <v>0.002282058275549137</v>
       </c>
       <c r="FR16" t="n">
         <v>0</v>
       </c>
       <c r="FS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT16" t="n">
-        <v>-0.006705104922171333</v>
+        <v>0.02152876426235856</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0.01256039298332177</v>
+        <v>-0.1304117943092</v>
       </c>
       <c r="FV16" t="n">
         <v>0</v>
       </c>
       <c r="FW16" t="n">
-        <v>-0.1088904483713148</v>
+        <v>0</v>
       </c>
       <c r="FX16" t="n">
         <v>-0</v>
       </c>
       <c r="FY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>0.03443915957421868</v>
       </c>
       <c r="GA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB16" t="n">
         <v>0</v>
@@ -9525,13 +9525,13 @@
         <v>-0</v>
       </c>
       <c r="GD16" t="n">
-        <v>-0.04502515176158242</v>
+        <v>0.1056542476631123</v>
       </c>
       <c r="GE16" t="n">
         <v>0</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.02149071401548687</v>
+        <v>0</v>
       </c>
       <c r="GG16" t="n">
         <v>-0</v>
